--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>Serie</t>
   </si>
@@ -677,6 +677,96 @@
   </si>
   <si>
     <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>07-08-2021</t>
+  </si>
+  <si>
+    <t>08-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>14-08-2021</t>
+  </si>
+  <si>
+    <t>15-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>21-08-2021</t>
+  </si>
+  <si>
+    <t>22-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>28-08-2021</t>
+  </si>
+  <si>
+    <t>29-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4716,10 +4806,520 @@
       <c r="A217" t="s">
         <v>220</v>
       </c>
+      <c r="B217">
+        <v>187</v>
+      </c>
+      <c r="C217">
+        <v>628</v>
+      </c>
       <c r="D217">
         <v>3940</v>
       </c>
       <c r="E217">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218">
+        <v>187</v>
+      </c>
+      <c r="C218">
+        <v>628</v>
+      </c>
+      <c r="D218">
+        <v>3940</v>
+      </c>
+      <c r="E218">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219">
+        <v>187</v>
+      </c>
+      <c r="C219">
+        <v>628</v>
+      </c>
+      <c r="D219">
+        <v>3940</v>
+      </c>
+      <c r="E219">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220">
+        <v>187</v>
+      </c>
+      <c r="C220">
+        <v>628</v>
+      </c>
+      <c r="D220">
+        <v>3940</v>
+      </c>
+      <c r="E220">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221">
+        <v>187</v>
+      </c>
+      <c r="C221">
+        <v>628</v>
+      </c>
+      <c r="D221">
+        <v>3940</v>
+      </c>
+      <c r="E221">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222">
+        <v>187</v>
+      </c>
+      <c r="C222">
+        <v>628</v>
+      </c>
+      <c r="D222">
+        <v>3940</v>
+      </c>
+      <c r="E222">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223">
+        <v>187</v>
+      </c>
+      <c r="C223">
+        <v>628</v>
+      </c>
+      <c r="D223">
+        <v>3940</v>
+      </c>
+      <c r="E223">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224">
+        <v>187</v>
+      </c>
+      <c r="C224">
+        <v>628</v>
+      </c>
+      <c r="D224">
+        <v>3940</v>
+      </c>
+      <c r="E224">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225">
+        <v>187</v>
+      </c>
+      <c r="C225">
+        <v>628</v>
+      </c>
+      <c r="D225">
+        <v>3940</v>
+      </c>
+      <c r="E225">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226">
+        <v>187</v>
+      </c>
+      <c r="C226">
+        <v>628</v>
+      </c>
+      <c r="D226">
+        <v>3940</v>
+      </c>
+      <c r="E226">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227">
+        <v>187</v>
+      </c>
+      <c r="C227">
+        <v>628</v>
+      </c>
+      <c r="D227">
+        <v>3940</v>
+      </c>
+      <c r="E227">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228">
+        <v>187</v>
+      </c>
+      <c r="C228">
+        <v>628</v>
+      </c>
+      <c r="D228">
+        <v>3940</v>
+      </c>
+      <c r="E228">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229">
+        <v>187</v>
+      </c>
+      <c r="C229">
+        <v>628</v>
+      </c>
+      <c r="D229">
+        <v>3940</v>
+      </c>
+      <c r="E229">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230">
+        <v>187</v>
+      </c>
+      <c r="C230">
+        <v>628</v>
+      </c>
+      <c r="D230">
+        <v>3940</v>
+      </c>
+      <c r="E230">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231">
+        <v>187</v>
+      </c>
+      <c r="C231">
+        <v>628</v>
+      </c>
+      <c r="D231">
+        <v>3940</v>
+      </c>
+      <c r="E231">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232">
+        <v>187</v>
+      </c>
+      <c r="C232">
+        <v>628</v>
+      </c>
+      <c r="D232">
+        <v>3940</v>
+      </c>
+      <c r="E232">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233">
+        <v>187</v>
+      </c>
+      <c r="C233">
+        <v>628</v>
+      </c>
+      <c r="D233">
+        <v>3940</v>
+      </c>
+      <c r="E233">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234">
+        <v>187</v>
+      </c>
+      <c r="C234">
+        <v>628</v>
+      </c>
+      <c r="D234">
+        <v>3940</v>
+      </c>
+      <c r="E234">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235">
+        <v>187</v>
+      </c>
+      <c r="C235">
+        <v>628</v>
+      </c>
+      <c r="D235">
+        <v>3940</v>
+      </c>
+      <c r="E235">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236">
+        <v>187</v>
+      </c>
+      <c r="C236">
+        <v>628</v>
+      </c>
+      <c r="D236">
+        <v>3940</v>
+      </c>
+      <c r="E236">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237">
+        <v>187</v>
+      </c>
+      <c r="C237">
+        <v>628</v>
+      </c>
+      <c r="D237">
+        <v>3940</v>
+      </c>
+      <c r="E237">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238">
+        <v>187</v>
+      </c>
+      <c r="C238">
+        <v>628</v>
+      </c>
+      <c r="D238">
+        <v>3940</v>
+      </c>
+      <c r="E238">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239">
+        <v>187</v>
+      </c>
+      <c r="C239">
+        <v>628</v>
+      </c>
+      <c r="D239">
+        <v>3940</v>
+      </c>
+      <c r="E239">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240">
+        <v>187</v>
+      </c>
+      <c r="C240">
+        <v>628</v>
+      </c>
+      <c r="D240">
+        <v>3940</v>
+      </c>
+      <c r="E240">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241">
+        <v>187</v>
+      </c>
+      <c r="C241">
+        <v>628</v>
+      </c>
+      <c r="D241">
+        <v>3940</v>
+      </c>
+      <c r="E241">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242">
+        <v>187</v>
+      </c>
+      <c r="C242">
+        <v>628</v>
+      </c>
+      <c r="D242">
+        <v>3940</v>
+      </c>
+      <c r="E242">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243">
+        <v>187</v>
+      </c>
+      <c r="C243">
+        <v>628</v>
+      </c>
+      <c r="D243">
+        <v>3940</v>
+      </c>
+      <c r="E243">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244">
+        <v>187</v>
+      </c>
+      <c r="C244">
+        <v>628</v>
+      </c>
+      <c r="D244">
+        <v>3940</v>
+      </c>
+      <c r="E244">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245">
+        <v>187</v>
+      </c>
+      <c r="C245">
+        <v>628</v>
+      </c>
+      <c r="D245">
+        <v>3940</v>
+      </c>
+      <c r="E245">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246">
+        <v>187</v>
+      </c>
+      <c r="C246">
+        <v>628</v>
+      </c>
+      <c r="D246">
+        <v>3940</v>
+      </c>
+      <c r="E246">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>250</v>
+      </c>
+      <c r="D247">
+        <v>3940</v>
+      </c>
+      <c r="E247">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Serie</t>
   </si>
@@ -767,6 +767,18 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>04-09-2021</t>
+  </si>
+  <si>
+    <t>05-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5316,10 +5328,78 @@
       <c r="A247" t="s">
         <v>250</v>
       </c>
+      <c r="B247">
+        <v>187</v>
+      </c>
+      <c r="C247">
+        <v>628</v>
+      </c>
       <c r="D247">
         <v>3940</v>
       </c>
       <c r="E247">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248">
+        <v>187</v>
+      </c>
+      <c r="C248">
+        <v>628</v>
+      </c>
+      <c r="D248">
+        <v>3940</v>
+      </c>
+      <c r="E248">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249">
+        <v>187</v>
+      </c>
+      <c r="C249">
+        <v>628</v>
+      </c>
+      <c r="D249">
+        <v>3940</v>
+      </c>
+      <c r="E249">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250">
+        <v>187</v>
+      </c>
+      <c r="C250">
+        <v>628</v>
+      </c>
+      <c r="D250">
+        <v>3940</v>
+      </c>
+      <c r="E250">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>254</v>
+      </c>
+      <c r="D251">
+        <v>3940</v>
+      </c>
+      <c r="E251">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Serie</t>
   </si>
@@ -779,6 +779,30 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>11-09-2021</t>
+  </si>
+  <si>
+    <t>12-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5396,10 +5420,146 @@
       <c r="A251" t="s">
         <v>254</v>
       </c>
+      <c r="B251">
+        <v>187</v>
+      </c>
+      <c r="C251">
+        <v>628</v>
+      </c>
       <c r="D251">
         <v>3940</v>
       </c>
       <c r="E251">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252">
+        <v>187</v>
+      </c>
+      <c r="C252">
+        <v>628</v>
+      </c>
+      <c r="D252">
+        <v>3940</v>
+      </c>
+      <c r="E252">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253">
+        <v>187</v>
+      </c>
+      <c r="C253">
+        <v>628</v>
+      </c>
+      <c r="D253">
+        <v>3940</v>
+      </c>
+      <c r="E253">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254">
+        <v>187</v>
+      </c>
+      <c r="C254">
+        <v>628</v>
+      </c>
+      <c r="D254">
+        <v>3940</v>
+      </c>
+      <c r="E254">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>258</v>
+      </c>
+      <c r="B255">
+        <v>187</v>
+      </c>
+      <c r="C255">
+        <v>628</v>
+      </c>
+      <c r="D255">
+        <v>3940</v>
+      </c>
+      <c r="E255">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>259</v>
+      </c>
+      <c r="B256">
+        <v>187</v>
+      </c>
+      <c r="C256">
+        <v>628</v>
+      </c>
+      <c r="D256">
+        <v>3940</v>
+      </c>
+      <c r="E256">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>260</v>
+      </c>
+      <c r="B257">
+        <v>187</v>
+      </c>
+      <c r="C257">
+        <v>628</v>
+      </c>
+      <c r="D257">
+        <v>3940</v>
+      </c>
+      <c r="E257">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>261</v>
+      </c>
+      <c r="B258">
+        <v>187</v>
+      </c>
+      <c r="C258">
+        <v>628</v>
+      </c>
+      <c r="D258">
+        <v>3940</v>
+      </c>
+      <c r="E258">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>262</v>
+      </c>
+      <c r="D259">
+        <v>3940</v>
+      </c>
+      <c r="E259">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>Serie</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5556,10 +5559,27 @@
       <c r="A259" t="s">
         <v>262</v>
       </c>
+      <c r="B259">
+        <v>187</v>
+      </c>
+      <c r="C259">
+        <v>628</v>
+      </c>
       <c r="D259">
         <v>3940</v>
       </c>
       <c r="E259">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>263</v>
+      </c>
+      <c r="D260">
+        <v>3940</v>
+      </c>
+      <c r="E260">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>Serie</t>
   </si>
@@ -806,6 +806,48 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>17-09-2021</t>
+  </si>
+  <si>
+    <t>18-09-2021</t>
+  </si>
+  <si>
+    <t>19-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>25-09-2021</t>
+  </si>
+  <si>
+    <t>26-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5576,10 +5618,248 @@
       <c r="A260" t="s">
         <v>263</v>
       </c>
+      <c r="B260">
+        <v>187</v>
+      </c>
+      <c r="C260">
+        <v>628</v>
+      </c>
       <c r="D260">
         <v>3940</v>
       </c>
       <c r="E260">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>264</v>
+      </c>
+      <c r="B261">
+        <v>187</v>
+      </c>
+      <c r="C261">
+        <v>628</v>
+      </c>
+      <c r="D261">
+        <v>3940</v>
+      </c>
+      <c r="E261">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>265</v>
+      </c>
+      <c r="B262">
+        <v>187</v>
+      </c>
+      <c r="C262">
+        <v>628</v>
+      </c>
+      <c r="D262">
+        <v>3940</v>
+      </c>
+      <c r="E262">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>266</v>
+      </c>
+      <c r="B263">
+        <v>187</v>
+      </c>
+      <c r="C263">
+        <v>628</v>
+      </c>
+      <c r="D263">
+        <v>3940</v>
+      </c>
+      <c r="E263">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>267</v>
+      </c>
+      <c r="B264">
+        <v>187</v>
+      </c>
+      <c r="C264">
+        <v>628</v>
+      </c>
+      <c r="D264">
+        <v>3940</v>
+      </c>
+      <c r="E264">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>268</v>
+      </c>
+      <c r="B265">
+        <v>187</v>
+      </c>
+      <c r="C265">
+        <v>628</v>
+      </c>
+      <c r="D265">
+        <v>3940</v>
+      </c>
+      <c r="E265">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266">
+        <v>187</v>
+      </c>
+      <c r="C266">
+        <v>628</v>
+      </c>
+      <c r="D266">
+        <v>3940</v>
+      </c>
+      <c r="E266">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>270</v>
+      </c>
+      <c r="B267">
+        <v>187</v>
+      </c>
+      <c r="C267">
+        <v>628</v>
+      </c>
+      <c r="D267">
+        <v>3940</v>
+      </c>
+      <c r="E267">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>271</v>
+      </c>
+      <c r="B268">
+        <v>187</v>
+      </c>
+      <c r="C268">
+        <v>628</v>
+      </c>
+      <c r="D268">
+        <v>3940</v>
+      </c>
+      <c r="E268">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>272</v>
+      </c>
+      <c r="B269">
+        <v>187</v>
+      </c>
+      <c r="C269">
+        <v>628</v>
+      </c>
+      <c r="D269">
+        <v>3940</v>
+      </c>
+      <c r="E269">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>273</v>
+      </c>
+      <c r="B270">
+        <v>187</v>
+      </c>
+      <c r="C270">
+        <v>628</v>
+      </c>
+      <c r="D270">
+        <v>3940</v>
+      </c>
+      <c r="E270">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271">
+        <v>187</v>
+      </c>
+      <c r="C271">
+        <v>628</v>
+      </c>
+      <c r="D271">
+        <v>3940</v>
+      </c>
+      <c r="E271">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272">
+        <v>187</v>
+      </c>
+      <c r="C272">
+        <v>628</v>
+      </c>
+      <c r="D272">
+        <v>3940</v>
+      </c>
+      <c r="E272">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273">
+        <v>187</v>
+      </c>
+      <c r="C273">
+        <v>628</v>
+      </c>
+      <c r="D273">
+        <v>3940</v>
+      </c>
+      <c r="E273">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>277</v>
+      </c>
+      <c r="D274">
+        <v>3940</v>
+      </c>
+      <c r="E274">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>Serie</t>
   </si>
@@ -848,6 +848,9 @@
   </si>
   <si>
     <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5856,10 +5859,27 @@
       <c r="A274" t="s">
         <v>277</v>
       </c>
+      <c r="B274">
+        <v>187</v>
+      </c>
+      <c r="C274">
+        <v>628</v>
+      </c>
       <c r="D274">
         <v>3940</v>
       </c>
       <c r="E274">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>278</v>
+      </c>
+      <c r="D275">
+        <v>3940</v>
+      </c>
+      <c r="E275">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>Serie</t>
   </si>
@@ -851,6 +851,21 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>02-10-2021</t>
+  </si>
+  <si>
+    <t>03-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5876,10 +5891,95 @@
       <c r="A275" t="s">
         <v>278</v>
       </c>
+      <c r="B275">
+        <v>187</v>
+      </c>
+      <c r="C275">
+        <v>628</v>
+      </c>
       <c r="D275">
         <v>3940</v>
       </c>
       <c r="E275">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276">
+        <v>187</v>
+      </c>
+      <c r="C276">
+        <v>628</v>
+      </c>
+      <c r="D276">
+        <v>3940</v>
+      </c>
+      <c r="E276">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>280</v>
+      </c>
+      <c r="B277">
+        <v>187</v>
+      </c>
+      <c r="C277">
+        <v>628</v>
+      </c>
+      <c r="D277">
+        <v>3940</v>
+      </c>
+      <c r="E277">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278">
+        <v>187</v>
+      </c>
+      <c r="C278">
+        <v>628</v>
+      </c>
+      <c r="D278">
+        <v>3940</v>
+      </c>
+      <c r="E278">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279">
+        <v>187</v>
+      </c>
+      <c r="C279">
+        <v>628</v>
+      </c>
+      <c r="D279">
+        <v>3940</v>
+      </c>
+      <c r="E279">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>283</v>
+      </c>
+      <c r="D280">
+        <v>3940</v>
+      </c>
+      <c r="E280">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>Serie</t>
   </si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E280"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5976,10 +5979,27 @@
       <c r="A280" t="s">
         <v>283</v>
       </c>
+      <c r="B280">
+        <v>187</v>
+      </c>
+      <c r="C280">
+        <v>628</v>
+      </c>
       <c r="D280">
         <v>3940</v>
       </c>
       <c r="E280">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>284</v>
+      </c>
+      <c r="D281">
+        <v>3940</v>
+      </c>
+      <c r="E281">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>Serie</t>
   </si>
@@ -869,6 +869,9 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:E282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5996,10 +5999,27 @@
       <c r="A281" t="s">
         <v>284</v>
       </c>
+      <c r="B281">
+        <v>187</v>
+      </c>
+      <c r="C281">
+        <v>628</v>
+      </c>
       <c r="D281">
         <v>3940</v>
       </c>
       <c r="E281">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>285</v>
+      </c>
+      <c r="D282">
+        <v>3940</v>
+      </c>
+      <c r="E282">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>Serie</t>
   </si>
@@ -872,6 +872,24 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>09-10-2021</t>
+  </si>
+  <si>
+    <t>10-10-2021</t>
+  </si>
+  <si>
+    <t>11-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6016,10 +6034,112 @@
       <c r="A282" t="s">
         <v>285</v>
       </c>
+      <c r="B282">
+        <v>187</v>
+      </c>
+      <c r="C282">
+        <v>628</v>
+      </c>
       <c r="D282">
         <v>3940</v>
       </c>
       <c r="E282">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283">
+        <v>187</v>
+      </c>
+      <c r="C283">
+        <v>628</v>
+      </c>
+      <c r="D283">
+        <v>3940</v>
+      </c>
+      <c r="E283">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>287</v>
+      </c>
+      <c r="B284">
+        <v>187</v>
+      </c>
+      <c r="C284">
+        <v>628</v>
+      </c>
+      <c r="D284">
+        <v>3940</v>
+      </c>
+      <c r="E284">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285">
+        <v>187</v>
+      </c>
+      <c r="C285">
+        <v>628</v>
+      </c>
+      <c r="D285">
+        <v>3940</v>
+      </c>
+      <c r="E285">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286">
+        <v>187</v>
+      </c>
+      <c r="C286">
+        <v>628</v>
+      </c>
+      <c r="D286">
+        <v>3940</v>
+      </c>
+      <c r="E286">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>290</v>
+      </c>
+      <c r="B287">
+        <v>187</v>
+      </c>
+      <c r="C287">
+        <v>628</v>
+      </c>
+      <c r="D287">
+        <v>3940</v>
+      </c>
+      <c r="E287">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>291</v>
+      </c>
+      <c r="D288">
+        <v>3940</v>
+      </c>
+      <c r="E288">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>Serie</t>
   </si>
@@ -890,6 +890,48 @@
   </si>
   <si>
     <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>16-10-2021</t>
+  </si>
+  <si>
+    <t>17-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>23-10-2021</t>
+  </si>
+  <si>
+    <t>24-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E288"/>
+  <dimension ref="A1:E302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6136,10 +6178,248 @@
       <c r="A288" t="s">
         <v>291</v>
       </c>
+      <c r="B288">
+        <v>187</v>
+      </c>
+      <c r="C288">
+        <v>628</v>
+      </c>
       <c r="D288">
         <v>3940</v>
       </c>
       <c r="E288">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289">
+        <v>187</v>
+      </c>
+      <c r="C289">
+        <v>628</v>
+      </c>
+      <c r="D289">
+        <v>3940</v>
+      </c>
+      <c r="E289">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290">
+        <v>187</v>
+      </c>
+      <c r="C290">
+        <v>628</v>
+      </c>
+      <c r="D290">
+        <v>3940</v>
+      </c>
+      <c r="E290">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291">
+        <v>187</v>
+      </c>
+      <c r="C291">
+        <v>628</v>
+      </c>
+      <c r="D291">
+        <v>3940</v>
+      </c>
+      <c r="E291">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292">
+        <v>187</v>
+      </c>
+      <c r="C292">
+        <v>628</v>
+      </c>
+      <c r="D292">
+        <v>3940</v>
+      </c>
+      <c r="E292">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>296</v>
+      </c>
+      <c r="B293">
+        <v>187</v>
+      </c>
+      <c r="C293">
+        <v>628</v>
+      </c>
+      <c r="D293">
+        <v>3940</v>
+      </c>
+      <c r="E293">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>297</v>
+      </c>
+      <c r="B294">
+        <v>187</v>
+      </c>
+      <c r="C294">
+        <v>628</v>
+      </c>
+      <c r="D294">
+        <v>3940</v>
+      </c>
+      <c r="E294">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>298</v>
+      </c>
+      <c r="B295">
+        <v>187</v>
+      </c>
+      <c r="C295">
+        <v>628</v>
+      </c>
+      <c r="D295">
+        <v>3940</v>
+      </c>
+      <c r="E295">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>299</v>
+      </c>
+      <c r="B296">
+        <v>187</v>
+      </c>
+      <c r="C296">
+        <v>628</v>
+      </c>
+      <c r="D296">
+        <v>3940</v>
+      </c>
+      <c r="E296">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>300</v>
+      </c>
+      <c r="B297">
+        <v>187</v>
+      </c>
+      <c r="C297">
+        <v>628</v>
+      </c>
+      <c r="D297">
+        <v>3940</v>
+      </c>
+      <c r="E297">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>301</v>
+      </c>
+      <c r="B298">
+        <v>187</v>
+      </c>
+      <c r="C298">
+        <v>628</v>
+      </c>
+      <c r="D298">
+        <v>3940</v>
+      </c>
+      <c r="E298">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>302</v>
+      </c>
+      <c r="B299">
+        <v>187</v>
+      </c>
+      <c r="C299">
+        <v>628</v>
+      </c>
+      <c r="D299">
+        <v>3940</v>
+      </c>
+      <c r="E299">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>303</v>
+      </c>
+      <c r="B300">
+        <v>187</v>
+      </c>
+      <c r="C300">
+        <v>628</v>
+      </c>
+      <c r="D300">
+        <v>3940</v>
+      </c>
+      <c r="E300">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>304</v>
+      </c>
+      <c r="B301">
+        <v>187</v>
+      </c>
+      <c r="C301">
+        <v>628</v>
+      </c>
+      <c r="D301">
+        <v>3940</v>
+      </c>
+      <c r="E301">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>305</v>
+      </c>
+      <c r="D302">
+        <v>3940</v>
+      </c>
+      <c r="E302">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>Serie</t>
   </si>
@@ -932,6 +932,21 @@
   </si>
   <si>
     <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>30-10-2021</t>
+  </si>
+  <si>
+    <t>31-10-2021</t>
+  </si>
+  <si>
+    <t>01-11-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E302"/>
+  <dimension ref="A1:E307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6416,10 +6431,77 @@
       <c r="A302" t="s">
         <v>305</v>
       </c>
+      <c r="B302">
+        <v>187</v>
+      </c>
+      <c r="C302">
+        <v>628</v>
+      </c>
       <c r="D302">
         <v>3940</v>
       </c>
       <c r="E302">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>306</v>
+      </c>
+      <c r="B303">
+        <v>187</v>
+      </c>
+      <c r="C303">
+        <v>628</v>
+      </c>
+      <c r="D303">
+        <v>3940</v>
+      </c>
+      <c r="E303">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>307</v>
+      </c>
+      <c r="D304">
+        <v>3940</v>
+      </c>
+      <c r="E304">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>308</v>
+      </c>
+      <c r="D305">
+        <v>3940</v>
+      </c>
+      <c r="E305">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>309</v>
+      </c>
+      <c r="D306">
+        <v>3940</v>
+      </c>
+      <c r="E306">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>310</v>
+      </c>
+      <c r="D307">
+        <v>3940</v>
+      </c>
+      <c r="E307">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>Serie</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E307"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6465,6 +6468,12 @@
       <c r="A304" t="s">
         <v>307</v>
       </c>
+      <c r="B304">
+        <v>187</v>
+      </c>
+      <c r="C304">
+        <v>628</v>
+      </c>
       <c r="D304">
         <v>3940</v>
       </c>
@@ -6476,6 +6485,12 @@
       <c r="A305" t="s">
         <v>308</v>
       </c>
+      <c r="B305">
+        <v>187</v>
+      </c>
+      <c r="C305">
+        <v>628</v>
+      </c>
       <c r="D305">
         <v>3940</v>
       </c>
@@ -6487,6 +6502,12 @@
       <c r="A306" t="s">
         <v>309</v>
       </c>
+      <c r="B306">
+        <v>187</v>
+      </c>
+      <c r="C306">
+        <v>628</v>
+      </c>
       <c r="D306">
         <v>3940</v>
       </c>
@@ -6498,10 +6519,27 @@
       <c r="A307" t="s">
         <v>310</v>
       </c>
+      <c r="B307">
+        <v>187</v>
+      </c>
+      <c r="C307">
+        <v>628</v>
+      </c>
       <c r="D307">
         <v>3940</v>
       </c>
       <c r="E307">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>311</v>
+      </c>
+      <c r="D308">
+        <v>3940</v>
+      </c>
+      <c r="E308">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>Serie</t>
   </si>
@@ -950,6 +950,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6536,10 +6539,27 @@
       <c r="A308" t="s">
         <v>311</v>
       </c>
+      <c r="B308">
+        <v>187</v>
+      </c>
+      <c r="C308">
+        <v>628</v>
+      </c>
       <c r="D308">
         <v>3940</v>
       </c>
       <c r="E308">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>312</v>
+      </c>
+      <c r="D309">
+        <v>3940</v>
+      </c>
+      <c r="E309">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>Serie</t>
   </si>
@@ -953,6 +953,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6556,10 +6559,27 @@
       <c r="A309" t="s">
         <v>312</v>
       </c>
+      <c r="B309">
+        <v>187</v>
+      </c>
+      <c r="C309">
+        <v>628</v>
+      </c>
       <c r="D309">
         <v>3940</v>
       </c>
       <c r="E309">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>313</v>
+      </c>
+      <c r="D310">
+        <v>3940</v>
+      </c>
+      <c r="E310">
         <v>30</v>
       </c>
     </row>

--- a/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>Serie</t>
   </si>
@@ -956,6 +956,15 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>06-11-2021</t>
+  </si>
+  <si>
+    <t>07-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6576,10 +6585,49 @@
       <c r="A310" t="s">
         <v>313</v>
       </c>
+      <c r="B310">
+        <v>187</v>
+      </c>
+      <c r="C310">
+        <v>628</v>
+      </c>
       <c r="D310">
         <v>3940</v>
       </c>
       <c r="E310">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>314</v>
+      </c>
+      <c r="D311">
+        <v>3940</v>
+      </c>
+      <c r="E311">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>315</v>
+      </c>
+      <c r="D312">
+        <v>3940</v>
+      </c>
+      <c r="E312">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>316</v>
+      </c>
+      <c r="D313">
+        <v>3940</v>
+      </c>
+      <c r="E313">
         <v>30</v>
       </c>
     </row>
